--- a/Resultados/Mercado mundial - Zanahorias y nabos.xlsx
+++ b/Resultados/Mercado mundial - Zanahorias y nabos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Uzbekistan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Russian Federation" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ukraine" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uzbekistán" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Uzbekistan'!$B$12:$B$73</f>
+              <f>'Uzbekistán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Uzbekistan'!$C$12:$C$73</f>
+              <f>'Uzbekistán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Russian Federation'!$B$12:$B$73</f>
+              <f>'Federación de Rusia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Russian Federation'!$C$12:$C$73</f>
+              <f>'Federación de Rusia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ukraine'!$B$12:$B$73</f>
+              <f>'Ucrania'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ukraine'!$C$12:$C$73</f>
+              <f>'Ucrania'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1127948</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>36.6981</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>41393537.66</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>36.6981</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2792263.07</v>
@@ -2161,10 +2160,10 @@
         <v>1140910</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>36.8466</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>42038650.96</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>36.8466</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2760501.91</v>
@@ -2183,10 +2182,10 @@
         <v>1139499</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>36.5147</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>41608486.83</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>36.5147</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2751648.93</v>
@@ -2205,10 +2204,10 @@
         <v>1133012</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>35.7374</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>40490932.87</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>35.7374</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2676938.18</v>
@@ -2227,10 +2226,10 @@
         <v>1142832</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>36.3228</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>41510817.56</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>36.3228</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2688618.36</v>
@@ -2249,10 +2248,10 @@
         <v>1113223</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>35.5106</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>39531199.83</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>35.5106</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2708941.48</v>
@@ -2271,10 +2270,10 @@
         <v>1170005</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>34.6547</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>40546120.37</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>34.6547</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2586203.38</v>
@@ -2293,10 +2292,10 @@
         <v>1154171</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>34.47669999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>39791983.79</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>34.47669999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2511127.36</v>
@@ -2315,10 +2314,10 @@
         <v>1168619</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>34.438</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>40244937.43</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>34.438</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2468800.24</v>
@@ -2337,10 +2336,10 @@
         <v>1113253</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>34.7619</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>38698782.48</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>34.7619</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2362569.38</v>
@@ -2359,10 +2358,10 @@
         <v>1142479</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>33.3421</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>38092622.57</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>33.3421</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2351942</v>
@@ -2381,10 +2380,10 @@
         <v>1195063</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>31.2314</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>37323446.3</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>31.2314</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2179161</v>
@@ -2403,10 +2402,10 @@
         <v>1204702</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>30.3697</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>36586385.08</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>30.3697</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2227000</v>
@@ -2425,10 +2424,10 @@
         <v>1170441</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>29.8864</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>34980228.86</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>29.8864</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2029248</v>
@@ -2447,10 +2446,10 @@
         <v>1149968</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>30.0685</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34577762.43</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>30.0685</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1892533</v>
@@ -2469,10 +2468,10 @@
         <v>1154832</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>29.3639</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>33910420.05</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>29.3639</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1944189</v>
@@ -2491,10 +2490,10 @@
         <v>1149686</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>26.5692</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>30546272.11</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>26.5692</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1818961</v>
@@ -2513,10 +2512,10 @@
         <v>1162738</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>25.014</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>29084690.29</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>25.014</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1814149</v>
@@ -2535,10 +2534,10 @@
         <v>1143024</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>24.212</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>27674865.29</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>24.212</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1644669</v>
@@ -2557,10 +2556,10 @@
         <v>1128150</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>23.2599</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>26240678.84</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>23.2599</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1505369</v>
@@ -2579,10 +2578,10 @@
         <v>1097464</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.9857</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>25225966.46</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.9857</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1560413</v>
@@ -2601,10 +2600,10 @@
         <v>1037138</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22.275</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>23102296.57</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22.275</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1415434</v>
@@ -2623,10 +2622,10 @@
         <v>1012995</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.9594</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>22244769.32</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.9594</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1418522.04</v>
@@ -2645,10 +2644,10 @@
         <v>1007565</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.7991</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21964003.08</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.7991</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1299005.6</v>
@@ -2667,10 +2666,10 @@
         <v>956984</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.7865</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20849310.93</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.7865</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1225865.73</v>
@@ -2689,10 +2688,10 @@
         <v>918814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.8162</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20045052.05</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.8162</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1159949.8</v>
@@ -2711,10 +2710,10 @@
         <v>879652</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>22.7718</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20031281.58</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>22.7718</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1131769.6</v>
@@ -2733,10 +2732,10 @@
         <v>831072</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22.7957</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18944848.59</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22.7957</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1125091.13</v>
@@ -2755,10 +2754,10 @@
         <v>790105</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>22.0919</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17454933.27</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>22.0919</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1022176</v>
@@ -2777,10 +2776,10 @@
         <v>758339</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21.9348</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16633984.45</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21.9348</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>922322.42</v>
@@ -2799,10 +2798,10 @@
         <v>704804</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.9274</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16159331.37</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.9274</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>873742</v>
@@ -2821,10 +2820,10 @@
         <v>691662</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>22.0547</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15254370.39</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>22.0547</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>860643</v>
@@ -2843,10 +2842,10 @@
         <v>709389</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>20.7058</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14688465.62</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>20.7058</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>834650</v>
@@ -2865,10 +2864,10 @@
         <v>623659</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>21.9115</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13665296</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>21.9115</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>711124</v>
@@ -2887,10 +2886,10 @@
         <v>636462</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>21.3184</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13568330</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>21.3184</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>699503</v>
@@ -2909,10 +2908,10 @@
         <v>619657</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>21.4226</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13274648</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>21.4226</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>672027</v>
@@ -2931,10 +2930,10 @@
         <v>600710</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>21.8375</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13117983</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>21.8375</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>575417</v>
@@ -2953,10 +2952,10 @@
         <v>585779</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>21.5083</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12599123</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>21.5083</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>542620</v>
@@ -2975,10 +2974,10 @@
         <v>566975</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.2888</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12070227</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.2888</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>542935</v>
@@ -2997,10 +2996,10 @@
         <v>573173</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>21.7673</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12476400</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>21.7673</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>510786</v>
@@ -3019,10 +3018,10 @@
         <v>542850</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>20.2086</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10970263</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>20.2086</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>453882</v>
@@ -3041,10 +3040,10 @@
         <v>546870</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>20.5506</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11238483</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>20.5506</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>489139</v>
@@ -3063,10 +3062,10 @@
         <v>549755</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>19.5669</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10757004</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>19.5669</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>452422</v>
@@ -3085,10 +3084,10 @@
         <v>527000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19.8124</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10441110</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19.8124</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>373565</v>
@@ -3107,10 +3106,10 @@
         <v>505816</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>19.6806</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9954755</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>19.6806</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>384872</v>
@@ -3129,10 +3128,10 @@
         <v>502111</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>20.3799</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10232968</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>20.3799</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>328009</v>
@@ -3151,10 +3150,10 @@
         <v>486159</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20.2795</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9859074</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20.2795</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>384273</v>
@@ -3173,10 +3172,10 @@
         <v>472623</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18.2259</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8614000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18.2259</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>382033</v>
@@ -3195,10 +3194,10 @@
         <v>468260</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.3377</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8586795</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.3377</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>320260</v>
@@ -3217,10 +3216,10 @@
         <v>459478</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>19.0559</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8755782</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>19.0559</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>309571</v>
@@ -3239,10 +3238,10 @@
         <v>449155</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>19.2568</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8649294</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>19.2568</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>270728</v>
@@ -3261,10 +3260,10 @@
         <v>430445</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>18.4833</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7956048</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>18.4833</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>268850</v>
@@ -3283,10 +3282,10 @@
         <v>423384</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>18.6657</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7902738</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>18.6657</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>234475</v>
@@ -3305,10 +3304,10 @@
         <v>427290</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>18.3777</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>7852605</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>18.3777</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>250896</v>
@@ -3327,10 +3326,10 @@
         <v>419802</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>18.5774</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7798836</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>18.5774</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>253526</v>
@@ -3349,10 +3348,10 @@
         <v>405412</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>18.5246</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7510103</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>18.5246</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>228782</v>
@@ -3371,10 +3370,10 @@
         <v>397312</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18.4741</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7339997</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>18.4741</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>208576</v>
@@ -3392,10 +3391,10 @@
         <v>395311</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>18.0531</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7136592</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>18.0531</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>223569</v>
@@ -3413,10 +3412,10 @@
         <v>389042</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17.1285</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6663699</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17.1285</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>207092</v>
@@ -3434,10 +3433,10 @@
         <v>394612</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>17.1154</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6753958</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>17.1154</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>172622</v>
@@ -3455,10 +3454,10 @@
         <v>394425</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>17.0342</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6718698</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>17.0342</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>251869</v>
@@ -3476,10 +3475,10 @@
         <v>379212</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>16.0549</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6088216</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>16.0549</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>235497</v>
@@ -3497,10 +3496,10 @@
         <v>362439</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16.1144</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5840505</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>16.1144</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>142097</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>350452.1</v>
+        <v>12194363.93</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.00846634812609056</v>
+        <v>0.2945958383688436</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>11843911.83</v>
+        <v>41393537.66</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.286129490242753</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>41393537.66</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4225,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4239,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4295,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4323,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4351,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4671,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4699,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>República de Corea</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4755,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4783,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>5371.76</v>
+        <v>1211148.58</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.001923801542094671</v>
+        <v>0.4337516020652022</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1205776.82</v>
+        <v>2792263.07</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.4318278005231075</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>2792263.07</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4829,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>429208</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>42.8267</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>18381577.4</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>42.8267</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.01</v>
@@ -5052,10 +5033,10 @@
         <v>427135</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>43.1805</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18443904.23</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>43.1805</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5072,10 +5053,10 @@
         <v>425020</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>43.298</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>18402513.38</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>43.298</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.8</v>
@@ -5094,10 +5075,10 @@
         <v>423236</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>43.2343</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>18298314.58</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>43.2343</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>38.31</v>
@@ -5116,10 +5097,10 @@
         <v>424895</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>43.8482</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18630884.73</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>43.8482</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>96.5</v>
@@ -5138,10 +5119,10 @@
         <v>419407</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>43.58130000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18278340.85</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>43.58130000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>124.86</v>
@@ -5160,10 +5141,10 @@
         <v>414605</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>43.38030000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>17985718.16</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>43.38030000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>147.38</v>
@@ -5182,10 +5163,10 @@
         <v>409063</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>43.28019999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17704326.77</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>43.28019999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>42.55</v>
@@ -5204,10 +5185,10 @@
         <v>435463</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>43.6292</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>18998907.5</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>43.6292</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12.37</v>
@@ -5226,10 +5207,10 @@
         <v>383333</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>45.0916</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17285072.81</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>45.0916</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>114.17</v>
@@ -5248,10 +5229,10 @@
         <v>408392</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>41.2079</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>16829000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>41.2079</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5270,10 +5251,10 @@
         <v>470972</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>34.9405</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16456000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>34.9405</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5292,10 +5273,10 @@
         <v>464000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>34.7306</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16115000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>34.7306</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>621</v>
@@ -5314,10 +5295,10 @@
         <v>447500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>34.7575</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>15554000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>34.7575</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5336,10 +5317,10 @@
         <v>433200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34.7576</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15057000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34.7576</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>114</v>
@@ -5358,10 +5339,10 @@
         <v>431100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>34.2542</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>14767000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>34.2542</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -5380,10 +5361,10 @@
         <v>440000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>27.2727</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>12000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>27.2727</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>148</v>
@@ -5402,10 +5383,10 @@
         <v>435000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>24.3678</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10600000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>24.3678</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23</v>
@@ -5424,10 +5405,10 @@
         <v>430000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.093</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9500000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.093</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>268</v>
@@ -5446,10 +5427,10 @@
         <v>420000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>19.5238</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8200000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>19.5238</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>41</v>
@@ -5468,10 +5449,10 @@
         <v>400000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8000000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5490,10 +5471,10 @@
         <v>370000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.9189</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.9189</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>75</v>
@@ -5512,10 +5493,10 @@
         <v>340000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>17.6471</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6000000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>17.6471</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>30</v>
@@ -5534,10 +5515,10 @@
         <v>318000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>17.6101</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5600000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>17.6101</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>29.61</v>
@@ -5556,10 +5537,10 @@
         <v>270000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.3333</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4680000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.3333</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>58</v>
@@ -5578,10 +5559,10 @@
         <v>250000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4400000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17.6</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>41</v>
@@ -5600,10 +5581,10 @@
         <v>220000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>19.7727</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4350000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>19.7727</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18</v>
@@ -5622,10 +5603,10 @@
         <v>185000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22.7027</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4200000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22.7027</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>35</v>
@@ -5644,10 +5625,10 @@
         <v>155000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>22.5806</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3500000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>22.5806</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>29</v>
@@ -5666,10 +5647,10 @@
         <v>145000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>22.7586</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>22.7586</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>87</v>
@@ -5688,10 +5669,10 @@
         <v>120000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.5</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>47</v>
@@ -5710,10 +5691,10 @@
         <v>95000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>22.6316</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2150000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>22.6316</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>37</v>
@@ -5732,10 +5713,10 @@
         <v>96000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>21.6771</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2081000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>21.6771</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5754,10 +5735,10 @@
         <v>89000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>21.2584</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1892000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>21.2584</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5776,10 +5757,10 @@
         <v>82000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>20.9756</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1720000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>20.9756</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5798,10 +5779,10 @@
         <v>78000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20.8974</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1630000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20.8974</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5820,10 +5801,10 @@
         <v>76000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20.7895</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1580000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20.7895</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5842,10 +5823,10 @@
         <v>74000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>20.8108</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1540000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>20.8108</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5864,10 +5845,10 @@
         <v>72000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>20.8333</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>20.8333</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5886,10 +5867,10 @@
         <v>73000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1460000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5908,10 +5889,10 @@
         <v>72000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1350000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>18.75</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5930,10 +5911,10 @@
         <v>71000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18.3099</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18.3099</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5952,10 +5933,10 @@
         <v>69000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18.1159</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1250000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>18.1159</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5974,10 +5955,10 @@
         <v>66000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1200000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>18.1818</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5996,10 +5977,10 @@
         <v>64000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>17.9688</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1150000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>17.9688</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6018,10 +5999,10 @@
         <v>62000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>17.5806</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1090000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>17.5806</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6040,10 +6021,10 @@
         <v>59000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16.9492</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16.9492</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6062,10 +6043,10 @@
         <v>59000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.5763</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>978000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.5763</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6084,10 +6065,10 @@
         <v>60000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.7667</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>946000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.7667</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6106,10 +6087,10 @@
         <v>59000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15.5932</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>920000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15.5932</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6128,10 +6109,10 @@
         <v>58000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.9138</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>865000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.9138</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6150,10 +6131,10 @@
         <v>56000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14.625</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>819000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14.625</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6172,10 +6153,10 @@
         <v>56000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>14.2857</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>14.2857</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6194,10 +6175,10 @@
         <v>55000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13.8182</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>760000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13.8182</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6216,10 +6197,10 @@
         <v>56000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13.2143</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>740000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13.2143</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6238,10 +6219,10 @@
         <v>56000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.8571</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>720000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.8571</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6260,10 +6241,10 @@
         <v>55000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.7273</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>700000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.7273</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6281,10 +6262,10 @@
         <v>54000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.963</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>700000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.963</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6302,10 +6283,10 @@
         <v>53000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.2642</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.2642</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6323,10 +6304,10 @@
         <v>49000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.8571</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.8571</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6344,10 +6325,10 @@
         <v>48000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6365,10 +6346,10 @@
         <v>48000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6386,10 +6367,10 @@
         <v>44000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6725,7 +6706,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6804,10 +6785,10 @@
         <v>40873</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>84.39880000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3449621.89</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>84.39880000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>7605.6</v>
@@ -6826,10 +6807,10 @@
         <v>47023</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>83.27800000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3915983.46</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>83.27800000000001</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6846,10 +6827,10 @@
         <v>44927</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>70.2411</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3155745</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>70.2411</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -6868,10 +6849,10 @@
         <v>36953</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>77.82939999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2876031</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>77.82939999999999</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6888,10 +6869,10 @@
         <v>38922</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>71.158</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2769613</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>71.158</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>11.03</v>
@@ -6910,10 +6891,10 @@
         <v>33128</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>65.9597</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2185113</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>65.9597</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6930,10 +6911,10 @@
         <v>30978</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>72.62360000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2249733</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>72.62360000000001</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -6950,10 +6931,10 @@
         <v>33313</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>64.5377</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2149946</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>64.5377</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6970,10 +6951,10 @@
         <v>30600</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>67.17089999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2055430</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>67.17089999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>260</v>
@@ -6992,10 +6973,10 @@
         <v>30200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>59.3225</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1791540</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>59.3225</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -7012,10 +6993,10 @@
         <v>27358</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>60.0147</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1641882</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>60.0147</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -7032,10 +7013,10 @@
         <v>28082</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>55.5078</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1558770</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>55.5078</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -7052,10 +7033,10 @@
         <v>24865</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>57.259</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1423745</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>57.259</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -7072,10 +7053,10 @@
         <v>24600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>53.2805</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1310700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>53.2805</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -7092,10 +7073,10 @@
         <v>23400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>52.5085</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1228700</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>52.5085</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -7112,10 +7093,10 @@
         <v>22700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>43.8678</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>995800</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>43.8678</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -7132,10 +7113,10 @@
         <v>19800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>42.1313</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>834200</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>42.1313</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -7152,10 +7133,10 @@
         <v>19360</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>38.4906</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>745178</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>38.4906</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -7172,10 +7153,10 @@
         <v>15390</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>32.86219999999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>505750</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>32.86219999999999</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -7192,10 +7173,10 @@
         <v>13840</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>36.1163</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>499850</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>36.1163</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -7212,10 +7193,10 @@
         <v>15000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>30.2133</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>453200</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>30.2133</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -7232,10 +7213,10 @@
         <v>14100</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>31.9149</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>31.9149</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7252,10 +7233,10 @@
         <v>13900</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>28.5755</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>397200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>28.5755</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7272,10 +7253,10 @@
         <v>14400</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>25.4931</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>367100</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>25.4931</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7292,10 +7273,10 @@
         <v>13500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>26.4667</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>357300</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>26.4667</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7312,10 +7293,10 @@
         <v>3800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>23.2105</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>88200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>23.2105</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7332,10 +7313,10 @@
         <v>3100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>21.9355</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>68000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>21.9355</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>55</v>
@@ -7354,10 +7335,10 @@
         <v>3100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>33.2258</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>103000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>33.2258</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -7372,10 +7353,10 @@
         <v>3600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.5833</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>66900</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.5833</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7390,10 +7371,10 @@
         <v>3900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>19.1538</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>74700</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>19.1538</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7408,10 +7389,10 @@
         <v>4400</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.6136</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>77500</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.6136</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7426,10 +7407,10 @@
         <v>4700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>70500</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7437,387 +7418,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8127,7 +8443,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8206,10 +8522,10 @@
         <v>43388</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>32.3367</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1403028.77</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>32.3367</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>91105.78</v>
@@ -8228,10 +8544,10 @@
         <v>42535</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>32.0248</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1362175.81</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>32.0248</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>134584</v>
@@ -8250,10 +8566,10 @@
         <v>42154</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>29.9578</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1262842.9</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>29.9578</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>186191.53</v>
@@ -8272,10 +8588,10 @@
         <v>44586</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>30.6952</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1368575.8</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>30.6952</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>159168.94</v>
@@ -8294,10 +8610,10 @@
         <v>48702</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>32.0051</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1558712</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>32.0051</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>184064.99</v>
@@ -8316,10 +8632,10 @@
         <v>48184</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>29.2285</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1408348</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>29.2285</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>179648.89</v>
@@ -8338,10 +8654,10 @@
         <v>49730</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>28.9246</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1438420</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>28.9246</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>186083.94</v>
@@ -8360,10 +8676,10 @@
         <v>51890</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>27.9583</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1450754</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>27.9583</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>151022.92</v>
@@ -8382,10 +8698,10 @@
         <v>68145</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26.1389</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1781235.3</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26.1389</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>176120.95</v>
@@ -8404,10 +8720,10 @@
         <v>68834</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>24.1465</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1662098.2</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>24.1465</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>245004.39</v>
@@ -8426,10 +8742,10 @@
         <v>67134</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23.9023</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1604656</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23.9023</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>257709</v>
@@ -8448,10 +8764,10 @@
         <v>68278</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.9214</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1565032</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.9214</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>198120</v>
@@ -8470,10 +8786,10 @@
         <v>74258</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.3648</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1735025.8</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.3648</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>266326</v>
@@ -8492,10 +8808,10 @@
         <v>66120</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.7111</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1303298.7</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.7111</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>228045</v>
@@ -8514,10 +8830,10 @@
         <v>67470</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>22.5085</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1518646.6</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>22.5085</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>159713</v>
@@ -8536,10 +8852,10 @@
         <v>68950</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>22.1925</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1530170</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>22.1925</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>190447</v>
@@ -8558,10 +8874,10 @@
         <v>63700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.1457</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1346979</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.1457</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>127942</v>
@@ -8580,10 +8896,10 @@
         <v>64053</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>21.1694</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1355969</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>21.1694</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>148601</v>
@@ -8602,10 +8918,10 @@
         <v>63083</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.4087</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1287432</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.4087</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>129152</v>
@@ -8624,10 +8940,10 @@
         <v>66790</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>19.7538</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1319360</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>19.7538</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>99294</v>
@@ -8646,10 +8962,10 @@
         <v>69414</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>19.5073</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1354082</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>19.5073</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>103655</v>
@@ -8668,10 +8984,10 @@
         <v>68222</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>17.4388</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1189708</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>17.4388</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>74492</v>
@@ -8690,10 +9006,10 @@
         <v>70976</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.4889</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1312263</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.4889</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>37181</v>
@@ -8712,10 +9028,10 @@
         <v>76994</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.0177</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1387262</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.0177</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>107709.77</v>
@@ -8734,10 +9050,10 @@
         <v>70328</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.4027</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1223905</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.4027</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>62525</v>
@@ -8756,10 +9072,10 @@
         <v>68494</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16.4573</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1127222</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16.4573</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>73455</v>
@@ -8778,10 +9094,10 @@
         <v>74736</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>18.8754</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1410679</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>18.8754</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>76255</v>
@@ -8800,10 +9116,10 @@
         <v>75190</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.1833</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1292010</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.1833</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>26579</v>
@@ -8822,10 +9138,10 @@
         <v>70700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16.7195</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1182070</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16.7195</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>21000</v>
@@ -8842,10 +9158,10 @@
         <v>65100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>15.235</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>991800</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>15.235</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24000</v>
@@ -8862,10 +9178,10 @@
         <v>61000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>20.8197</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1270000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>20.8197</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4400</v>
@@ -8884,10 +9200,10 @@
         <v>61000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>21.5246</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1313000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>21.5246</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2065</v>
@@ -8899,387 +9215,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9589,7 +10240,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9668,10 +10319,10 @@
         <v>26629</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>50.0095</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1331702</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>50.0095</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>287169.8</v>
@@ -9690,10 +10341,10 @@
         <v>30149</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>48.2539</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1454807</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>48.2539</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>272447.22</v>
@@ -9712,10 +10363,10 @@
         <v>25779</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>49.99480000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1288815</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>49.99480000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>239204.14</v>
@@ -9734,10 +10385,10 @@
         <v>28005</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>49.8134</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1395024</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>49.8134</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>211854.45</v>
@@ -9756,10 +10407,10 @@
         <v>29178</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>51.762</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1510304</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>51.762</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>228525.34</v>
@@ -9778,10 +10429,10 @@
         <v>32290</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>46.3819</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1497670</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>46.3819</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>224263.94</v>
@@ -9800,10 +10451,10 @@
         <v>30720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>45.7741</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1406180</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>45.7741</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>208078.12</v>
@@ -9822,10 +10473,10 @@
         <v>31360</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>45.9075</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1439660</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>45.9075</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>215242.05</v>
@@ -9844,10 +10495,10 @@
         <v>34630</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>41.4167</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1434260</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>41.4167</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>193870.13</v>
@@ -9866,10 +10517,10 @@
         <v>34660</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>41.6365</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1443120</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>41.6365</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>179374.3</v>
@@ -9888,10 +10539,10 @@
         <v>34280</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>41.4078</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1419460</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>41.4078</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>161333</v>
@@ -9910,10 +10561,10 @@
         <v>34040</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>40.3675</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1374110</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>40.3675</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>168501</v>
@@ -9932,10 +10583,10 @@
         <v>33868</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.3489</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1298800</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>38.3489</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>178523</v>
@@ -9954,10 +10605,10 @@
         <v>31810</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>42.1786</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1341700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>42.1786</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>146704</v>
@@ -9976,10 +10627,10 @@
         <v>33400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>39.7254</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1326830</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>39.7254</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>135404</v>
@@ -9998,10 +10649,10 @@
         <v>36280</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>40.7574</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1478680</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>40.7574</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>125485</v>
@@ -10020,10 +10671,10 @@
         <v>38093</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>38.0711</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1450260</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>38.0711</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>111355</v>
@@ -10042,10 +10693,10 @@
         <v>37620</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>40.014</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1505326</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>40.014</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>112673</v>
@@ -10064,10 +10715,10 @@
         <v>39486</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>42.1108</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1662771</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>42.1108</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>89162</v>
@@ -10086,10 +10737,10 @@
         <v>39401</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>41.2288</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1624441</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>41.2288</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>97615</v>
@@ -10108,10 +10759,10 @@
         <v>40934</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>40.8618</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1672636</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>40.8618</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>84914</v>
@@ -10130,10 +10781,10 @@
         <v>41319</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>38.1052</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1574467</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>38.1052</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>86266</v>
@@ -10152,10 +10803,10 @@
         <v>43682</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>39.2609</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1714996</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>39.2609</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>91368</v>
@@ -10174,10 +10825,10 @@
         <v>45309</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>38.5621</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1747208</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>38.5621</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>75966.94</v>
@@ -10196,10 +10847,10 @@
         <v>51310</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>37.8474</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1941950</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>37.8474</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>83831</v>
@@ -10218,10 +10869,10 @@
         <v>54990</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>38.7034</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2128300</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>38.7034</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>81270</v>
@@ -10240,10 +10891,10 @@
         <v>54120</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>41.8875</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2266950</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>41.8875</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>101166</v>
@@ -10262,10 +10913,10 @@
         <v>56400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>36.2234</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2043000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>36.2234</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>100832</v>
@@ -10284,10 +10935,10 @@
         <v>51600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>36.39530000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1878000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>36.39530000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>100773</v>
@@ -10306,10 +10957,10 @@
         <v>52030</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>38.9775</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2028000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>38.9775</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>72067</v>
@@ -10328,10 +10979,10 @@
         <v>51460</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>34.2382</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1761900</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>34.2382</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>55070</v>
@@ -10350,10 +11001,10 @@
         <v>43260</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>34.383</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1487410</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>34.383</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>60937</v>
@@ -10372,10 +11023,10 @@
         <v>39660</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>32.6778</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1296000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>32.6778</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>62145</v>
@@ -10394,10 +11045,10 @@
         <v>38400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>35.3646</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1358000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>35.3646</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>55407</v>
@@ -10416,10 +11067,10 @@
         <v>41240</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>31.8822</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1314820</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>31.8822</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>56055</v>
@@ -10438,10 +11089,10 @@
         <v>39480</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>29.7188</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1173300</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>29.7188</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>53245</v>
@@ -10460,10 +11111,10 @@
         <v>40310</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>32.3175</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1302720</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>32.3175</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>44831</v>
@@ -10482,10 +11133,10 @@
         <v>35050</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>30.4625</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1067710</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>30.4625</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>51689</v>
@@ -10504,10 +11155,10 @@
         <v>36340</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>28.4238</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1032920</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>28.4238</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>67039</v>
@@ -10526,10 +11177,10 @@
         <v>37935</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>28.2259</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1070750</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>28.2259</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>73251</v>
@@ -10548,10 +11199,10 @@
         <v>35370</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>29.6725</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1049517</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>29.6725</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>57455</v>
@@ -10570,10 +11221,10 @@
         <v>35146</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>32.0093</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1125000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>32.0093</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>47685</v>
@@ -10592,10 +11243,10 @@
         <v>34135</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>29.0083</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>990200</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>29.0083</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>39862</v>
@@ -10614,10 +11265,10 @@
         <v>33100</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>28.6242</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>947460</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>28.6242</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>49297</v>
@@ -10636,10 +11287,10 @@
         <v>31590</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>31.7664</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1003500</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>31.7664</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>43011</v>
@@ -10658,10 +11309,10 @@
         <v>31068</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>28.9434</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>899215</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>28.9434</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>32798</v>
@@ -10680,10 +11331,10 @@
         <v>28125</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>31.0796</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>874113</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>31.0796</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>32911</v>
@@ -10702,10 +11353,10 @@
         <v>29704</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>29.4382</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>874431</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>29.4382</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>30527</v>
@@ -10724,10 +11375,10 @@
         <v>28409</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>30.3618</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>862547</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>30.3618</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>27577</v>
@@ -10746,10 +11397,10 @@
         <v>31788</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>32.7108</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1039810</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>32.7108</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>31780</v>
@@ -10768,10 +11419,10 @@
         <v>33912</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>29.806</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1010780</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>29.806</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>21776</v>
@@ -10790,10 +11441,10 @@
         <v>30675</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>28.9898</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>889263</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>28.9898</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>23147</v>
@@ -10812,10 +11463,10 @@
         <v>29271</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>29.2352</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>855743</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>29.2352</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>23880</v>
@@ -10834,10 +11485,10 @@
         <v>31391</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>26.2348</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>823538</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>26.2348</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>25485</v>
@@ -10856,10 +11507,10 @@
         <v>31970</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>26.0775</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>833698</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>26.0775</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>28058</v>
@@ -10878,10 +11529,10 @@
         <v>29218</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>29.7167</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>868262</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>29.7167</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>28935</v>
@@ -10900,10 +11551,10 @@
         <v>32896</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>24.1314</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>793828</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>24.1314</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>26394</v>
@@ -10921,10 +11572,10 @@
         <v>32245</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>24.2163</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>780855</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>24.2163</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>21154</v>
@@ -10942,10 +11593,10 @@
         <v>32245</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>24.5736</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>792376</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>24.5736</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>17145</v>
@@ -10963,10 +11614,10 @@
         <v>33388</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>22.0288</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>735496</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>22.0288</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>22226</v>
@@ -10984,10 +11635,10 @@
         <v>36895</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22.1478</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>817142</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22.1478</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>17622</v>
@@ -11005,10 +11656,10 @@
         <v>33726</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>22.6055</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>762394</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>22.6055</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>14540</v>
@@ -11026,10 +11677,10 @@
         <v>29934</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>23.9372</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>716536</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>23.9372</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>13429</v>
@@ -11365,7 +12016,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11444,10 +12095,10 @@
         <v>40700</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>20.7472</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>844410</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>20.7472</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>27611.49</v>
@@ -11466,10 +12117,10 @@
         <v>38200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>19.6055</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>748930</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>19.6055</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>35491</v>
@@ -11488,10 +12139,10 @@
         <v>43200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>19.9836</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>863290</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>19.9836</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>403.49</v>
@@ -11510,10 +12161,10 @@
         <v>43500</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.8267</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>862460</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.8267</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>813.83</v>
@@ -11532,10 +12183,10 @@
         <v>43000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>20.2198</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>869450</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>20.2198</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3288.51</v>
@@ -11554,10 +12205,10 @@
         <v>43100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>19.5323</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>841840</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>19.5323</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5942.09</v>
@@ -11576,10 +12227,10 @@
         <v>42700</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>19.6489</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>839010</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>19.6489</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2293.14</v>
@@ -11598,10 +12249,10 @@
         <v>43100</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20.3462</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>876920</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20.3462</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6605.44</v>
@@ -11620,10 +12271,10 @@
         <v>42800</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>19.2271</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>822920</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>19.2271</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3299.48</v>
@@ -11642,10 +12293,10 @@
         <v>43800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>20.3358</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>890710</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>20.3358</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>865.27</v>
@@ -11664,10 +12315,10 @@
         <v>46770</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>19.8871</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>930120</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>19.8871</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1188</v>
@@ -11686,10 +12337,10 @@
         <v>48300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18.9627</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>915900</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18.9627</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>997</v>
@@ -11708,10 +12359,10 @@
         <v>48200</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>17.9295</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>864200</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>17.9295</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>10395</v>
@@ -11730,10 +12381,10 @@
         <v>44200</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>16.1674</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>714600</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>16.1674</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20139</v>
@@ -11752,10 +12403,10 @@
         <v>41700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>16.4604</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>686400</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>16.4604</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4571</v>
@@ -11774,10 +12425,10 @@
         <v>42600</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>17.3615</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>739600</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>17.3615</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20546</v>
@@ -11796,10 +12447,10 @@
         <v>39800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>15.0025</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>597100</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>15.0025</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>680</v>
@@ -11818,10 +12469,10 @@
         <v>42200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.0498</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>719500</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.0498</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3160</v>
@@ -11840,10 +12491,10 @@
         <v>39700</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>16.2544</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>645300</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>16.2544</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>38</v>
@@ -11862,10 +12513,10 @@
         <v>41700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16.1847</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>674900</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16.1847</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>9</v>
@@ -11884,10 +12535,10 @@
         <v>38800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.6521</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>529700</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.6521</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>205</v>
@@ -11906,10 +12557,10 @@
         <v>36300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>445400</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>12.27</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>65</v>
@@ -11928,10 +12579,10 @@
         <v>36500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.6712</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>462500</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.6712</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6</v>
@@ -11950,10 +12601,10 @@
         <v>41000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.1098</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>496500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.1098</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>31</v>
@@ -11972,10 +12623,10 @@
         <v>37900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.1504</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>384700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.1504</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>16</v>
@@ -11994,10 +12645,10 @@
         <v>32900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>11.541</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>379700</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>11.541</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>52</v>
@@ -12016,10 +12667,10 @@
         <v>37200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.0699</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>449000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.0699</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>160</v>
@@ -12038,10 +12689,10 @@
         <v>30500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>10.4459</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>318600</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>10.4459</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>247</v>
@@ -12060,10 +12711,10 @@
         <v>33700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>12.1217</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>408500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>12.1217</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>363</v>
@@ -12082,10 +12733,10 @@
         <v>29000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>11.2759</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>327000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>11.2759</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>68</v>
@@ -12104,10 +12755,10 @@
         <v>31000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.3548</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>414000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.3548</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12122,10 +12773,10 @@
         <v>29940</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10.7557</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>322025</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10.7557</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -12133,387 +12784,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Zanahorias y nabos.xlsx
+++ b/Resultados/Mercado mundial - Zanahorias y nabos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uzbekistán" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Uzbekistan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Russian Federation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ukraine" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Uzbekistán'!$B$12:$B$74</f>
+              <f>'Uzbekistan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Uzbekistán'!$C$12:$C$74</f>
+              <f>'Uzbekistan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Federación de Rusia'!$B$12:$B$74</f>
+              <f>'Russian Federation'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Federación de Rusia'!$C$12:$C$74</f>
+              <f>'Russian Federation'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ucrania'!$B$12:$B$74</f>
+              <f>'Ukraine'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ucrania'!$C$12:$C$74</f>
+              <f>'Ukraine'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1127948</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>41393537.66</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>36.6981</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>41393537.66</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2792263.07</v>
@@ -2160,10 +2161,10 @@
         <v>1140910</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>42038650.96</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>36.8466</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>42038650.96</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2760501.91</v>
@@ -2182,10 +2183,10 @@
         <v>1139499</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>41608486.83</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>36.5147</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>41608486.83</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2751648.93</v>
@@ -2204,10 +2205,10 @@
         <v>1133012</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>40490932.87</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>35.7374</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>40490932.87</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2676938.18</v>
@@ -2226,10 +2227,10 @@
         <v>1142832</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>41510817.56</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>36.3228</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>41510817.56</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2688618.36</v>
@@ -2248,10 +2249,10 @@
         <v>1113223</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>39531199.83</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>35.5106</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>39531199.83</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2708941.48</v>
@@ -2270,10 +2271,10 @@
         <v>1170005</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>40546120.37</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>34.6547</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>40546120.37</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2586203.38</v>
@@ -2292,10 +2293,10 @@
         <v>1154171</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>39791983.79</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>34.47669999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>39791983.79</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2511127.36</v>
@@ -2314,10 +2315,10 @@
         <v>1168619</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>40244937.43</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>34.438</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>40244937.43</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2468800.24</v>
@@ -2336,10 +2337,10 @@
         <v>1113253</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>38698782.48</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>34.7619</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>38698782.48</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2362569.38</v>
@@ -2358,10 +2359,10 @@
         <v>1142479</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>38092622.57</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>33.3421</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>38092622.57</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2351942</v>
@@ -2380,10 +2381,10 @@
         <v>1195063</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>37323446.3</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>31.2314</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>37323446.3</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2179161</v>
@@ -2402,10 +2403,10 @@
         <v>1204702</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>36586385.08</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>30.3697</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>36586385.08</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2227000</v>
@@ -2424,10 +2425,10 @@
         <v>1170441</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>34980228.86</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>29.8864</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>34980228.86</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2029248</v>
@@ -2446,10 +2447,10 @@
         <v>1149968</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34577762.43</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>30.0685</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34577762.43</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1892533</v>
@@ -2468,10 +2469,10 @@
         <v>1154832</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>33910420.05</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>29.3639</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>33910420.05</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1944189</v>
@@ -2490,10 +2491,10 @@
         <v>1149686</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>30546272.11</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>26.5692</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>30546272.11</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1818961</v>
@@ -2512,10 +2513,10 @@
         <v>1162738</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>29084690.29</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>25.014</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>29084690.29</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1814149</v>
@@ -2534,10 +2535,10 @@
         <v>1143024</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>27674865.29</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>24.212</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>27674865.29</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1644669</v>
@@ -2556,10 +2557,10 @@
         <v>1128150</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>26240678.84</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>23.2599</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>26240678.84</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1505369</v>
@@ -2578,10 +2579,10 @@
         <v>1097464</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>25225966.46</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.9857</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>25225966.46</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1560413</v>
@@ -2600,10 +2601,10 @@
         <v>1037138</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>23102296.57</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22.275</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>23102296.57</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1415434</v>
@@ -2622,10 +2623,10 @@
         <v>1012995</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>22244769.32</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.9594</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>22244769.32</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1418522.04</v>
@@ -2644,10 +2645,10 @@
         <v>1007565</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21964003.08</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.7991</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21964003.08</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1299005.6</v>
@@ -2666,10 +2667,10 @@
         <v>956984</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20849310.93</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.7865</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20849310.93</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1225865.73</v>
@@ -2688,10 +2689,10 @@
         <v>918814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20045052.05</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.8162</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20045052.05</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1159949.8</v>
@@ -2710,10 +2711,10 @@
         <v>879652</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20031281.58</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>22.7718</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20031281.58</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1131769.6</v>
@@ -2732,10 +2733,10 @@
         <v>831072</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18944848.59</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22.7957</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18944848.59</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1125091.13</v>
@@ -2754,10 +2755,10 @@
         <v>790105</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17454933.27</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>22.0919</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17454933.27</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1022176</v>
@@ -2776,10 +2777,10 @@
         <v>758339</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16633984.45</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21.9348</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16633984.45</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>922322.42</v>
@@ -2798,10 +2799,10 @@
         <v>704804</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16159331.37</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.9274</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16159331.37</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>873742</v>
@@ -2820,10 +2821,10 @@
         <v>691662</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15254370.39</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>22.0547</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15254370.39</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>860643</v>
@@ -2842,10 +2843,10 @@
         <v>709389</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14688465.62</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>20.7058</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14688465.62</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>834650</v>
@@ -2864,10 +2865,10 @@
         <v>623659</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13665296</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>21.9115</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13665296</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>711124</v>
@@ -2886,10 +2887,10 @@
         <v>636462</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13568330</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>21.3184</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13568330</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>699503</v>
@@ -2908,10 +2909,10 @@
         <v>619657</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13274648</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>21.4226</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13274648</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>672027</v>
@@ -2930,10 +2931,10 @@
         <v>600710</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13117983</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>21.8375</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13117983</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>575417</v>
@@ -2952,10 +2953,10 @@
         <v>585779</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12599123</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>21.5083</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12599123</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>542620</v>
@@ -2974,10 +2975,10 @@
         <v>566975</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12070227</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.2888</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12070227</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>542935</v>
@@ -2996,10 +2997,10 @@
         <v>573173</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12476400</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>21.7673</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12476400</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>510786</v>
@@ -3018,10 +3019,10 @@
         <v>542850</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10970263</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>20.2086</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10970263</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>453882</v>
@@ -3040,10 +3041,10 @@
         <v>546870</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11238483</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>20.5506</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11238483</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>489139</v>
@@ -3062,10 +3063,10 @@
         <v>549755</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10757004</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>19.5669</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10757004</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>452422</v>
@@ -3084,10 +3085,10 @@
         <v>527000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10441110</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19.8124</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10441110</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>373565</v>
@@ -3106,10 +3107,10 @@
         <v>505816</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9954755</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>19.6806</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9954755</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>384872</v>
@@ -3128,10 +3129,10 @@
         <v>502111</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10232968</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>20.3799</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10232968</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>328009</v>
@@ -3150,10 +3151,10 @@
         <v>486159</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9859074</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20.2795</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9859074</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>384273</v>
@@ -3172,10 +3173,10 @@
         <v>472623</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8614000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18.2259</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8614000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>382033</v>
@@ -3194,10 +3195,10 @@
         <v>468260</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8586795</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.3377</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8586795</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>320260</v>
@@ -3216,10 +3217,10 @@
         <v>459478</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8755782</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>19.0559</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8755782</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>309571</v>
@@ -3238,10 +3239,10 @@
         <v>449155</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8649294</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>19.2568</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8649294</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>270728</v>
@@ -3260,10 +3261,10 @@
         <v>430445</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7956048</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>18.4833</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7956048</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>268850</v>
@@ -3282,10 +3283,10 @@
         <v>423384</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7902738</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>18.6657</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7902738</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>234475</v>
@@ -3304,10 +3305,10 @@
         <v>427290</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>7852605</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>18.3777</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>7852605</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>250896</v>
@@ -3326,10 +3327,10 @@
         <v>419802</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7798836</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>18.5774</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7798836</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>253526</v>
@@ -3348,10 +3349,10 @@
         <v>405412</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7510103</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>18.5246</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7510103</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>228782</v>
@@ -3370,10 +3371,10 @@
         <v>397312</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7339997</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18.4741</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7339997</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>208576</v>
@@ -3391,10 +3392,10 @@
         <v>395311</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7136592</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>18.0531</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7136592</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>223569</v>
@@ -3412,10 +3413,10 @@
         <v>389042</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6663699</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17.1285</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6663699</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>207092</v>
@@ -3433,10 +3434,10 @@
         <v>394612</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6753958</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>17.1154</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6753958</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>172622</v>
@@ -3454,10 +3455,10 @@
         <v>394425</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6718698</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>17.0342</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6718698</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>251869</v>
@@ -3475,10 +3476,10 @@
         <v>379212</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6088216</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>16.0549</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6088216</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>235497</v>
@@ -3496,10 +3497,10 @@
         <v>362439</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5840505</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16.1144</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5840505</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>142097</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>12194363.93</v>
+        <v>350452.1</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2945958383688436</v>
+        <v>0.00846634812609056</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>11843911.83</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.286129490242753</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>41393537.66</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4225,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4239,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4295,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4323,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4341,7 +4351,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4671,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4699,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>República de Corea</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4755,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4783,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1211148.58</v>
+        <v>5371.76</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.4337516020652022</v>
+        <v>0.001923801542094671</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1205776.82</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.4318278005231075</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>2792263.07</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4829,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>429208</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>18381577.4</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>42.8267</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>18381577.4</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.01</v>
@@ -5033,10 +5052,10 @@
         <v>427135</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18443904.23</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>43.1805</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18443904.23</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5053,10 +5072,10 @@
         <v>425020</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>18402513.38</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>43.298</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>18402513.38</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.8</v>
@@ -5075,10 +5094,10 @@
         <v>423236</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>18298314.58</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>43.2343</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>18298314.58</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>38.31</v>
@@ -5097,10 +5116,10 @@
         <v>424895</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18630884.73</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>43.8482</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>18630884.73</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>96.5</v>
@@ -5119,10 +5138,10 @@
         <v>419407</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18278340.85</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>43.58130000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18278340.85</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>124.86</v>
@@ -5141,10 +5160,10 @@
         <v>414605</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>17985718.16</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>43.38030000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>17985718.16</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>147.38</v>
@@ -5163,10 +5182,10 @@
         <v>409063</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17704326.77</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>43.28019999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17704326.77</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>42.55</v>
@@ -5185,10 +5204,10 @@
         <v>435463</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>18998907.5</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>43.6292</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>18998907.5</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12.37</v>
@@ -5207,10 +5226,10 @@
         <v>383333</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17285072.81</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>45.0916</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17285072.81</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>114.17</v>
@@ -5229,10 +5248,10 @@
         <v>408392</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>16829000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>41.2079</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>16829000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5251,10 +5270,10 @@
         <v>470972</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16456000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>34.9405</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16456000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5273,10 +5292,10 @@
         <v>464000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16115000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>34.7306</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>16115000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>621</v>
@@ -5295,10 +5314,10 @@
         <v>447500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>15554000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>34.7575</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>15554000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5317,10 +5336,10 @@
         <v>433200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15057000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34.7576</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>15057000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>114</v>
@@ -5339,10 +5358,10 @@
         <v>431100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>14767000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>34.2542</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>14767000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -5361,10 +5380,10 @@
         <v>440000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>27.2727</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>12000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>148</v>
@@ -5383,10 +5402,10 @@
         <v>435000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10600000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>24.3678</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10600000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23</v>
@@ -5405,10 +5424,10 @@
         <v>430000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.093</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9500000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>268</v>
@@ -5427,10 +5446,10 @@
         <v>420000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>19.5238</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8200000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>41</v>
@@ -5449,10 +5468,10 @@
         <v>400000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8000000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5471,10 +5490,10 @@
         <v>370000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.9189</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>75</v>
@@ -5493,10 +5512,10 @@
         <v>340000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>17.6471</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6000000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>30</v>
@@ -5515,10 +5534,10 @@
         <v>318000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>17.6101</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5600000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>29.61</v>
@@ -5537,10 +5556,10 @@
         <v>270000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4680000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.3333</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4680000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>58</v>
@@ -5559,10 +5578,10 @@
         <v>250000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17.6</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4400000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>41</v>
@@ -5581,10 +5600,10 @@
         <v>220000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4350000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>19.7727</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4350000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18</v>
@@ -5603,10 +5622,10 @@
         <v>185000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22.7027</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4200000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>35</v>
@@ -5625,10 +5644,10 @@
         <v>155000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>22.5806</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3500000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>29</v>
@@ -5647,10 +5666,10 @@
         <v>145000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>22.7586</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>87</v>
@@ -5669,10 +5688,10 @@
         <v>120000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.5</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>47</v>
@@ -5691,10 +5710,10 @@
         <v>95000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>22.6316</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2150000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>37</v>
@@ -5713,10 +5732,10 @@
         <v>96000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2081000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>21.6771</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2081000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5735,10 +5754,10 @@
         <v>89000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1892000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>21.2584</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1892000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5757,10 +5776,10 @@
         <v>82000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>20.9756</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1720000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5779,10 +5798,10 @@
         <v>78000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20.8974</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1630000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5801,10 +5820,10 @@
         <v>76000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20.7895</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1580000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5823,10 +5842,10 @@
         <v>74000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>20.8108</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1540000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5845,10 +5864,10 @@
         <v>72000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>20.8333</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5867,10 +5886,10 @@
         <v>73000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1460000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5889,10 +5908,10 @@
         <v>72000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>18.75</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1350000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5911,10 +5930,10 @@
         <v>71000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18.3099</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5933,10 +5952,10 @@
         <v>69000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18.1159</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1250000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5955,10 +5974,10 @@
         <v>66000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>18.1818</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1200000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5977,10 +5996,10 @@
         <v>64000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>17.9688</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1150000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5999,10 +6018,10 @@
         <v>62000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>17.5806</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1090000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6021,10 +6040,10 @@
         <v>59000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16.9492</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6043,10 +6062,10 @@
         <v>59000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>978000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.5763</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>978000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6065,10 +6084,10 @@
         <v>60000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>946000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.7667</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>946000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6087,10 +6106,10 @@
         <v>59000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15.5932</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>920000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6109,10 +6128,10 @@
         <v>58000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>865000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.9138</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>865000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6131,10 +6150,10 @@
         <v>56000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>819000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14.625</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>819000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6153,10 +6172,10 @@
         <v>56000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>14.2857</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6175,10 +6194,10 @@
         <v>55000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>760000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13.8182</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>760000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6197,10 +6216,10 @@
         <v>56000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13.2143</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>740000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6219,10 +6238,10 @@
         <v>56000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.8571</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>720000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6241,10 +6260,10 @@
         <v>55000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.7273</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>700000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6262,10 +6281,10 @@
         <v>54000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.963</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>700000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6283,10 +6302,10 @@
         <v>53000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.2642</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6304,10 +6323,10 @@
         <v>49000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.8571</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6325,10 +6344,10 @@
         <v>48000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6346,10 +6365,10 @@
         <v>48000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6367,10 +6386,10 @@
         <v>44000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6706,7 +6725,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6785,10 +6804,10 @@
         <v>40873</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3449621.89</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>84.39880000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3449621.89</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>7605.6</v>
@@ -6807,10 +6826,10 @@
         <v>47023</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3915983.46</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>83.27800000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3915983.46</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6827,10 +6846,10 @@
         <v>44927</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3155745</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>70.2411</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3155745</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -6849,10 +6868,10 @@
         <v>36953</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2876031</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>77.82939999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2876031</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6869,10 +6888,10 @@
         <v>38922</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2769613</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>71.158</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2769613</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>11.03</v>
@@ -6891,10 +6910,10 @@
         <v>33128</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2185113</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>65.9597</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2185113</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6911,10 +6930,10 @@
         <v>30978</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2249733</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>72.62360000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2249733</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -6931,10 +6950,10 @@
         <v>33313</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2149946</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>64.5377</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2149946</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6951,10 +6970,10 @@
         <v>30600</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2055430</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>67.17089999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2055430</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>260</v>
@@ -6973,10 +6992,10 @@
         <v>30200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1791540</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>59.3225</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1791540</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6993,10 +7012,10 @@
         <v>27358</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1641882</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>60.0147</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1641882</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -7013,10 +7032,10 @@
         <v>28082</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1558770</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>55.5078</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1558770</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -7033,10 +7052,10 @@
         <v>24865</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1423745</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>57.259</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1423745</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -7053,10 +7072,10 @@
         <v>24600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1310700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>53.2805</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1310700</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -7073,10 +7092,10 @@
         <v>23400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1228700</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>52.5085</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1228700</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -7093,10 +7112,10 @@
         <v>22700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>995800</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>43.8678</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>995800</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -7113,10 +7132,10 @@
         <v>19800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>834200</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>42.1313</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>834200</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -7133,10 +7152,10 @@
         <v>19360</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>745178</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>38.4906</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>745178</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -7153,10 +7172,10 @@
         <v>15390</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>505750</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>32.86219999999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>505750</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -7173,10 +7192,10 @@
         <v>13840</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>499850</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>36.1163</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>499850</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -7193,10 +7212,10 @@
         <v>15000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>453200</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>30.2133</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>453200</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -7213,10 +7232,10 @@
         <v>14100</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>31.9149</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7233,10 +7252,10 @@
         <v>13900</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>397200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>28.5755</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>397200</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7253,10 +7272,10 @@
         <v>14400</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>367100</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>25.4931</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>367100</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7273,10 +7292,10 @@
         <v>13500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>357300</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>26.4667</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>357300</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7293,10 +7312,10 @@
         <v>3800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>88200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>23.2105</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>88200</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7313,10 +7332,10 @@
         <v>3100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>21.9355</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>68000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>55</v>
@@ -7335,10 +7354,10 @@
         <v>3100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>33.2258</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>103000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -7353,10 +7372,10 @@
         <v>3600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.5833</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>66900</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7371,10 +7390,10 @@
         <v>3900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>74700</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>19.1538</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>74700</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7389,10 +7408,10 @@
         <v>4400</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>77500</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.6136</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>77500</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7407,10 +7426,10 @@
         <v>4700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>70500</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>70500</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7418,722 +7437,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8443,7 +8127,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8522,10 +8206,10 @@
         <v>43388</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1403028.77</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>32.3367</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1403028.77</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>91105.78</v>
@@ -8544,10 +8228,10 @@
         <v>42535</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1362175.81</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>32.0248</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1362175.81</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>134584</v>
@@ -8566,10 +8250,10 @@
         <v>42154</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1262842.9</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>29.9578</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1262842.9</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>186191.53</v>
@@ -8588,10 +8272,10 @@
         <v>44586</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1368575.8</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>30.6952</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1368575.8</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>159168.94</v>
@@ -8610,10 +8294,10 @@
         <v>48702</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1558712</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>32.0051</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1558712</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>184064.99</v>
@@ -8632,10 +8316,10 @@
         <v>48184</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1408348</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>29.2285</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1408348</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>179648.89</v>
@@ -8654,10 +8338,10 @@
         <v>49730</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1438420</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>28.9246</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1438420</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>186083.94</v>
@@ -8676,10 +8360,10 @@
         <v>51890</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1450754</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>27.9583</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1450754</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>151022.92</v>
@@ -8698,10 +8382,10 @@
         <v>68145</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1781235.3</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26.1389</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1781235.3</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>176120.95</v>
@@ -8720,10 +8404,10 @@
         <v>68834</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1662098.2</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>24.1465</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1662098.2</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>245004.39</v>
@@ -8742,10 +8426,10 @@
         <v>67134</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1604656</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23.9023</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1604656</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>257709</v>
@@ -8764,10 +8448,10 @@
         <v>68278</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1565032</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.9214</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1565032</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>198120</v>
@@ -8786,10 +8470,10 @@
         <v>74258</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1735025.8</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.3648</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1735025.8</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>266326</v>
@@ -8808,10 +8492,10 @@
         <v>66120</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1303298.7</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.7111</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1303298.7</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>228045</v>
@@ -8830,10 +8514,10 @@
         <v>67470</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1518646.6</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>22.5085</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1518646.6</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>159713</v>
@@ -8852,10 +8536,10 @@
         <v>68950</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1530170</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>22.1925</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1530170</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>190447</v>
@@ -8874,10 +8558,10 @@
         <v>63700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1346979</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.1457</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1346979</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>127942</v>
@@ -8896,10 +8580,10 @@
         <v>64053</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1355969</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>21.1694</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1355969</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>148601</v>
@@ -8918,10 +8602,10 @@
         <v>63083</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1287432</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.4087</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1287432</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>129152</v>
@@ -8940,10 +8624,10 @@
         <v>66790</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1319360</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>19.7538</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1319360</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>99294</v>
@@ -8962,10 +8646,10 @@
         <v>69414</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1354082</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>19.5073</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1354082</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>103655</v>
@@ -8984,10 +8668,10 @@
         <v>68222</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1189708</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>17.4388</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1189708</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>74492</v>
@@ -9006,10 +8690,10 @@
         <v>70976</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1312263</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.4889</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1312263</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>37181</v>
@@ -9028,10 +8712,10 @@
         <v>76994</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1387262</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.0177</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1387262</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>107709.77</v>
@@ -9050,10 +8734,10 @@
         <v>70328</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1223905</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.4027</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1223905</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>62525</v>
@@ -9072,10 +8756,10 @@
         <v>68494</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1127222</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16.4573</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1127222</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>73455</v>
@@ -9094,10 +8778,10 @@
         <v>74736</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1410679</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>18.8754</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1410679</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>76255</v>
@@ -9116,10 +8800,10 @@
         <v>75190</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1292010</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.1833</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1292010</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>26579</v>
@@ -9138,10 +8822,10 @@
         <v>70700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1182070</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16.7195</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1182070</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>21000</v>
@@ -9158,10 +8842,10 @@
         <v>65100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>991800</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>15.235</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>991800</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24000</v>
@@ -9178,10 +8862,10 @@
         <v>61000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1270000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>20.8197</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1270000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4400</v>
@@ -9200,10 +8884,10 @@
         <v>61000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1313000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>21.5246</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1313000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2065</v>
@@ -9215,722 +8899,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10240,7 +9589,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10319,10 +9668,10 @@
         <v>26629</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1331702</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>50.0095</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1331702</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>287169.8</v>
@@ -10341,10 +9690,10 @@
         <v>30149</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1454807</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>48.2539</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1454807</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>272447.22</v>
@@ -10363,10 +9712,10 @@
         <v>25779</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1288815</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>49.99480000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1288815</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>239204.14</v>
@@ -10385,10 +9734,10 @@
         <v>28005</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1395024</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>49.8134</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1395024</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>211854.45</v>
@@ -10407,10 +9756,10 @@
         <v>29178</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1510304</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>51.762</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1510304</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>228525.34</v>
@@ -10429,10 +9778,10 @@
         <v>32290</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1497670</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>46.3819</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1497670</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>224263.94</v>
@@ -10451,10 +9800,10 @@
         <v>30720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1406180</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>45.7741</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1406180</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>208078.12</v>
@@ -10473,10 +9822,10 @@
         <v>31360</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1439660</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>45.9075</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1439660</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>215242.05</v>
@@ -10495,10 +9844,10 @@
         <v>34630</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1434260</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>41.4167</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1434260</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>193870.13</v>
@@ -10517,10 +9866,10 @@
         <v>34660</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1443120</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>41.6365</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1443120</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>179374.3</v>
@@ -10539,10 +9888,10 @@
         <v>34280</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1419460</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>41.4078</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1419460</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>161333</v>
@@ -10561,10 +9910,10 @@
         <v>34040</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1374110</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>40.3675</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1374110</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>168501</v>
@@ -10583,10 +9932,10 @@
         <v>33868</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1298800</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.3489</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1298800</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>178523</v>
@@ -10605,10 +9954,10 @@
         <v>31810</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1341700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>42.1786</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1341700</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>146704</v>
@@ -10627,10 +9976,10 @@
         <v>33400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1326830</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>39.7254</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1326830</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>135404</v>
@@ -10649,10 +9998,10 @@
         <v>36280</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1478680</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>40.7574</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1478680</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>125485</v>
@@ -10671,10 +10020,10 @@
         <v>38093</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1450260</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>38.0711</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1450260</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>111355</v>
@@ -10693,10 +10042,10 @@
         <v>37620</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1505326</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>40.014</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1505326</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>112673</v>
@@ -10715,10 +10064,10 @@
         <v>39486</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1662771</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>42.1108</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1662771</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>89162</v>
@@ -10737,10 +10086,10 @@
         <v>39401</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1624441</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>41.2288</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1624441</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>97615</v>
@@ -10759,10 +10108,10 @@
         <v>40934</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1672636</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>40.8618</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1672636</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>84914</v>
@@ -10781,10 +10130,10 @@
         <v>41319</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1574467</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>38.1052</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1574467</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>86266</v>
@@ -10803,10 +10152,10 @@
         <v>43682</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1714996</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>39.2609</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1714996</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>91368</v>
@@ -10825,10 +10174,10 @@
         <v>45309</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1747208</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>38.5621</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1747208</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>75966.94</v>
@@ -10847,10 +10196,10 @@
         <v>51310</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1941950</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>37.8474</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1941950</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>83831</v>
@@ -10869,10 +10218,10 @@
         <v>54990</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2128300</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>38.7034</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2128300</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>81270</v>
@@ -10891,10 +10240,10 @@
         <v>54120</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2266950</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>41.8875</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2266950</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>101166</v>
@@ -10913,10 +10262,10 @@
         <v>56400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2043000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>36.2234</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2043000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>100832</v>
@@ -10935,10 +10284,10 @@
         <v>51600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1878000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>36.39530000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1878000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>100773</v>
@@ -10957,10 +10306,10 @@
         <v>52030</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2028000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>38.9775</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2028000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>72067</v>
@@ -10979,10 +10328,10 @@
         <v>51460</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1761900</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>34.2382</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1761900</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>55070</v>
@@ -11001,10 +10350,10 @@
         <v>43260</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1487410</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>34.383</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1487410</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>60937</v>
@@ -11023,10 +10372,10 @@
         <v>39660</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1296000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>32.6778</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1296000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>62145</v>
@@ -11045,10 +10394,10 @@
         <v>38400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1358000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>35.3646</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1358000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>55407</v>
@@ -11067,10 +10416,10 @@
         <v>41240</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1314820</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>31.8822</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1314820</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>56055</v>
@@ -11089,10 +10438,10 @@
         <v>39480</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1173300</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>29.7188</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1173300</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>53245</v>
@@ -11111,10 +10460,10 @@
         <v>40310</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1302720</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>32.3175</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1302720</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>44831</v>
@@ -11133,10 +10482,10 @@
         <v>35050</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1067710</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>30.4625</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1067710</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>51689</v>
@@ -11155,10 +10504,10 @@
         <v>36340</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1032920</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>28.4238</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1032920</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>67039</v>
@@ -11177,10 +10526,10 @@
         <v>37935</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1070750</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>28.2259</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1070750</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>73251</v>
@@ -11199,10 +10548,10 @@
         <v>35370</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1049517</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>29.6725</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1049517</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>57455</v>
@@ -11221,10 +10570,10 @@
         <v>35146</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1125000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>32.0093</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1125000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>47685</v>
@@ -11243,10 +10592,10 @@
         <v>34135</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>990200</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>29.0083</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>990200</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>39862</v>
@@ -11265,10 +10614,10 @@
         <v>33100</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>947460</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>28.6242</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>947460</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>49297</v>
@@ -11287,10 +10636,10 @@
         <v>31590</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1003500</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>31.7664</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1003500</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>43011</v>
@@ -11309,10 +10658,10 @@
         <v>31068</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>899215</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>28.9434</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>899215</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>32798</v>
@@ -11331,10 +10680,10 @@
         <v>28125</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>874113</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>31.0796</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>874113</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>32911</v>
@@ -11353,10 +10702,10 @@
         <v>29704</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>874431</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>29.4382</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>874431</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>30527</v>
@@ -11375,10 +10724,10 @@
         <v>28409</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>862547</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>30.3618</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>862547</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>27577</v>
@@ -11397,10 +10746,10 @@
         <v>31788</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1039810</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>32.7108</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1039810</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>31780</v>
@@ -11419,10 +10768,10 @@
         <v>33912</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1010780</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>29.806</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1010780</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>21776</v>
@@ -11441,10 +10790,10 @@
         <v>30675</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>889263</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>28.9898</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>889263</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>23147</v>
@@ -11463,10 +10812,10 @@
         <v>29271</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>855743</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>29.2352</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>855743</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>23880</v>
@@ -11485,10 +10834,10 @@
         <v>31391</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>823538</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>26.2348</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>823538</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>25485</v>
@@ -11507,10 +10856,10 @@
         <v>31970</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>833698</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>26.0775</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>833698</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>28058</v>
@@ -11529,10 +10878,10 @@
         <v>29218</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>868262</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>29.7167</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>868262</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>28935</v>
@@ -11551,10 +10900,10 @@
         <v>32896</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>793828</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>24.1314</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>793828</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>26394</v>
@@ -11572,10 +10921,10 @@
         <v>32245</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>780855</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>24.2163</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>780855</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>21154</v>
@@ -11593,10 +10942,10 @@
         <v>32245</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>792376</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>24.5736</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>792376</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>17145</v>
@@ -11614,10 +10963,10 @@
         <v>33388</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>735496</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>22.0288</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>735496</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>22226</v>
@@ -11635,10 +10984,10 @@
         <v>36895</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>817142</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22.1478</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>817142</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>17622</v>
@@ -11656,10 +11005,10 @@
         <v>33726</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>762394</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>22.6055</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>762394</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>14540</v>
@@ -11677,10 +11026,10 @@
         <v>29934</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>716536</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>23.9372</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>716536</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>13429</v>
@@ -12016,7 +11365,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12095,10 +11444,10 @@
         <v>40700</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>844410</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>20.7472</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>844410</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>27611.49</v>
@@ -12117,10 +11466,10 @@
         <v>38200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>748930</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>19.6055</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>748930</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>35491</v>
@@ -12139,10 +11488,10 @@
         <v>43200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>863290</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>19.9836</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>863290</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>403.49</v>
@@ -12161,10 +11510,10 @@
         <v>43500</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>862460</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.8267</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>862460</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>813.83</v>
@@ -12183,10 +11532,10 @@
         <v>43000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>869450</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>20.2198</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>869450</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3288.51</v>
@@ -12205,10 +11554,10 @@
         <v>43100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>841840</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>19.5323</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>841840</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5942.09</v>
@@ -12227,10 +11576,10 @@
         <v>42700</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>839010</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>19.6489</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>839010</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2293.14</v>
@@ -12249,10 +11598,10 @@
         <v>43100</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>876920</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20.3462</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>876920</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6605.44</v>
@@ -12271,10 +11620,10 @@
         <v>42800</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>822920</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>19.2271</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>822920</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3299.48</v>
@@ -12293,10 +11642,10 @@
         <v>43800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>890710</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>20.3358</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>890710</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>865.27</v>
@@ -12315,10 +11664,10 @@
         <v>46770</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>930120</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>19.8871</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>930120</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1188</v>
@@ -12337,10 +11686,10 @@
         <v>48300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>915900</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18.9627</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>915900</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>997</v>
@@ -12359,10 +11708,10 @@
         <v>48200</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>864200</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>17.9295</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>864200</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>10395</v>
@@ -12381,10 +11730,10 @@
         <v>44200</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>714600</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>16.1674</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>714600</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20139</v>
@@ -12403,10 +11752,10 @@
         <v>41700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>686400</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>16.4604</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>686400</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4571</v>
@@ -12425,10 +11774,10 @@
         <v>42600</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>739600</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>17.3615</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>739600</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20546</v>
@@ -12447,10 +11796,10 @@
         <v>39800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>597100</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>15.0025</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>597100</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>680</v>
@@ -12469,10 +11818,10 @@
         <v>42200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>719500</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.0498</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>719500</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3160</v>
@@ -12491,10 +11840,10 @@
         <v>39700</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>645300</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>16.2544</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>645300</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>38</v>
@@ -12513,10 +11862,10 @@
         <v>41700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>674900</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16.1847</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>674900</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>9</v>
@@ -12535,10 +11884,10 @@
         <v>38800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>529700</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.6521</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>529700</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>205</v>
@@ -12557,10 +11906,10 @@
         <v>36300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>445400</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>12.27</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>445400</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>65</v>
@@ -12579,10 +11928,10 @@
         <v>36500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>462500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.6712</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>462500</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6</v>
@@ -12601,10 +11950,10 @@
         <v>41000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>496500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.1098</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>496500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>31</v>
@@ -12623,10 +11972,10 @@
         <v>37900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>384700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.1504</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>384700</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>16</v>
@@ -12645,10 +11994,10 @@
         <v>32900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>379700</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>11.541</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>379700</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>52</v>
@@ -12667,10 +12016,10 @@
         <v>37200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>449000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.0699</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>449000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>160</v>
@@ -12689,10 +12038,10 @@
         <v>30500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>318600</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>10.4459</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>318600</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>247</v>
@@ -12711,10 +12060,10 @@
         <v>33700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>408500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>12.1217</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>408500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>363</v>
@@ -12733,10 +12082,10 @@
         <v>29000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>327000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>11.2759</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>327000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>68</v>
@@ -12755,10 +12104,10 @@
         <v>31000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>414000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.3548</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>414000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12773,10 +12122,10 @@
         <v>29940</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>322025</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10.7557</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>322025</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -12784,722 +12133,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
